--- a/problems_info.xlsx
+++ b/problems_info.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Esther\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B0F299-30A6-4E7D-B500-32FC7E11AA10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37924F3D-4261-49AE-9E07-85B66D67A77D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E1730042-7B4E-4E1E-A72E-06808613F9D1}"/>
   </bookViews>
   <sheets>
-    <sheet name="python" sheetId="1" r:id="rId1"/>
-    <sheet name="sql" sheetId="3" r:id="rId2"/>
+    <sheet name="by_problem" sheetId="1" r:id="rId1"/>
+    <sheet name="by_topic" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="36">
   <si>
     <t>easy</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Date completed</t>
   </si>
   <si>
-    <t>Comments</t>
-  </si>
-  <si>
     <t>medium</t>
   </si>
   <si>
@@ -64,45 +61,21 @@
     <t>Flatten Binary Tree to Linked List</t>
   </si>
   <si>
-    <t>tree, depth-first search</t>
-  </si>
-  <si>
-    <t>array, greedy</t>
-  </si>
-  <si>
     <t>array</t>
   </si>
   <si>
-    <t>Related topics</t>
-  </si>
-  <si>
     <t>math</t>
   </si>
   <si>
     <t>Rotate Array</t>
   </si>
   <si>
-    <t>array, modulo</t>
-  </si>
-  <si>
-    <t>array, hash table</t>
-  </si>
-  <si>
     <t>Contains Duplicate</t>
   </si>
   <si>
     <t>Single Number</t>
   </si>
   <si>
-    <t>hash table, bit manipulation</t>
-  </si>
-  <si>
-    <t>array, two pointers</t>
-  </si>
-  <si>
-    <t>hash table, two pointers, binary search, sort</t>
-  </si>
-  <si>
     <t>Intersection of Two Arrays II</t>
   </si>
   <si>
@@ -112,15 +85,9 @@
     <t>Move Zeroes</t>
   </si>
   <si>
-    <t>array, array transformation, two pointers</t>
-  </si>
-  <si>
     <t>Big Countries</t>
   </si>
   <si>
-    <t>WHERE</t>
-  </si>
-  <si>
     <t>Runtime pcrtile</t>
   </si>
   <si>
@@ -133,7 +100,46 @@
     <t>note: this was Diane's interview simulator question</t>
   </si>
   <si>
-    <t>no data</t>
+    <t>greedy</t>
+  </si>
+  <si>
+    <t>two-pointers</t>
+  </si>
+  <si>
+    <t>modulo</t>
+  </si>
+  <si>
+    <t>hash table</t>
+  </si>
+  <si>
+    <t>bit manipulation</t>
+  </si>
+  <si>
+    <t>binary search</t>
+  </si>
+  <si>
+    <t>sort</t>
+  </si>
+  <si>
+    <t>array transformation</t>
+  </si>
+  <si>
+    <t>PROBLEM</t>
+  </si>
+  <si>
+    <t>TOPIC</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>python</t>
+  </si>
+  <si>
+    <t>sql</t>
+  </si>
+  <si>
+    <t>Not done yet</t>
   </si>
 </sst>
 </file>
@@ -495,297 +501,542 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DE7CF05-C9BC-4754-B324-6BC1626BFEAD}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>122</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="1">
         <v>44035</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>10.84</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>48.35</v>
       </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
+        <v>595</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="1">
+        <v>44024</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>70.59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>1281</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1">
         <v>44011</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E4" t="s">
         <v>0</v>
       </c>
-      <c r="E3">
+      <c r="F4">
         <v>97.21</v>
       </c>
-      <c r="F3">
+      <c r="G4">
         <v>66.180000000000007</v>
       </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>114</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="1">
         <v>44035</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>0</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>93.92</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>77.62</v>
       </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>189</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="1">
         <v>44035</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>0</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>55.14</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>5.74</v>
       </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>217</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="1">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="1">
         <v>44036</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>0</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>16.899999999999999</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>23.93</v>
       </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>136</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="1">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="1">
         <v>44036</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>0</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>96.2</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>19.04</v>
       </c>
-      <c r="G8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>350</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="1">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="1">
         <v>44036</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>0</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>5.5</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>87.7</v>
       </c>
-      <c r="G9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="1">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="1">
         <v>44036</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>0</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>16.21</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>42.12</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>283</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="1">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1">
         <v>44036</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>0</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>98.93</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>59.57</v>
       </c>
-      <c r="G11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>344</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>387</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>242</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>125</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>70</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>121</v>
+      </c>
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>53</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>198</v>
+      </c>
+      <c r="C26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>412</v>
+      </c>
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>204</v>
+      </c>
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>326</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>237</v>
+      </c>
+      <c r="C31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>19</v>
+      </c>
+      <c r="C32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>206</v>
+      </c>
+      <c r="C33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>21</v>
+      </c>
+      <c r="C34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>234</v>
+      </c>
+      <c r="C35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>141</v>
+      </c>
+      <c r="C36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>104</v>
+      </c>
+      <c r="C37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>98</v>
+      </c>
+      <c r="C38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>101</v>
+      </c>
+      <c r="C39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>102</v>
+      </c>
+      <c r="C40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>108</v>
+      </c>
+      <c r="C41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>94</v>
+      </c>
+      <c r="C42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>107</v>
+      </c>
+      <c r="C43" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>331</v>
+      </c>
+      <c r="C44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>114</v>
+      </c>
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" t="s">
+        <v>33</v>
+      </c>
+      <c r="E50" t="s">
+        <v>3</v>
+      </c>
+      <c r="H50" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -795,74 +1046,185 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B35517-1CA8-46E5-9AFE-9D8283747798}">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC4804AD-8DE2-4F01-A40A-B7171D3FEFE6}">
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>122</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>217</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>283</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>283</v>
+      </c>
+      <c r="B7" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>595</v>
-      </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>189</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>350</v>
+      </c>
+      <c r="B9" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="1">
-        <v>44024</v>
-      </c>
-      <c r="D3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>70.59</v>
-      </c>
-      <c r="F3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>136</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>122</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>217</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>136</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>350</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1281</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>189</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>350</v>
+      </c>
+      <c r="B17" t="s">
         <v>28</v>
       </c>
     </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>350</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>283</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B20">
+    <sortCondition ref="B2:B20"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>